--- a/File_Excel/commenti_positivi_negativi_per_notizia.xlsx
+++ b/File_Excel/commenti_positivi_negativi_per_notizia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" t="n">
         <v>16</v>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F16" t="n">
         <v>16</v>
@@ -832,7 +832,7 @@
         <v>81</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" t="n">
         <v>27</v>
@@ -1117,10 +1117,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F30" t="n">
         <v>10</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F31" t="n">
         <v>15</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F33" t="n">
         <v>48</v>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36" t="n">
         <v>22</v>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F42" t="n">
         <v>6</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F44" t="n">
         <v>6</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F45" t="n">
         <v>14</v>
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F48" t="n">
         <v>6</v>
@@ -1597,10 +1597,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F50" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F53" t="n">
         <v>20</v>
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F56" t="n">
         <v>22</v>
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F57" t="n">
         <v>12</v>
@@ -1809,14 +1809,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F58" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -1828,19 +1828,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -1857,14 +1857,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F60" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -1881,14 +1881,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -1900,19 +1900,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F62" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -1929,14 +1929,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F63" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -1953,38 +1953,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>L'incoronazione di Re Carlo</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F65" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -2001,14 +2001,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F66" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67">
@@ -2025,14 +2025,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
@@ -2044,19 +2044,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F68" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -2073,14 +2073,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F69" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -2097,14 +2097,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F70" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
@@ -2116,19 +2116,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F71" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
@@ -2145,62 +2145,62 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F72" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F73" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -2217,11 +2217,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F75" t="n">
         <v>21</v>
@@ -2236,16 +2236,16 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="F76" t="n">
         <v>12</v>
@@ -2260,19 +2260,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -2289,14 +2289,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F78" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -2308,19 +2308,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -2332,19 +2332,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -2361,62 +2361,62 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="F82" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F83" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -2433,14 +2433,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F84" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -2452,19 +2452,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F85" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -2476,19 +2476,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F86" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
@@ -2505,14 +2505,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F87" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
@@ -2524,19 +2524,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>84</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -2548,19 +2548,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F89" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
@@ -2577,62 +2577,62 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
@@ -2649,14 +2649,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
@@ -2668,19 +2668,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F94" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
@@ -2692,19 +2692,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F95" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -2721,14 +2721,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F96" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -2740,19 +2740,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F97" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -2764,19 +2764,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F98" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
@@ -2788,31 +2788,31 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corrirere Della Sera</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2821,22 +2821,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F100" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2845,22 +2845,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F101" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F102" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F105" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F106" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2989,10 +2989,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F107" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3013,9 +3013,81 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F108" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>93</v>
+      </c>
+      <c r="F109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>79</v>
+      </c>
+      <c r="F110" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>82</v>
+      </c>
+      <c r="F111" t="n">
         <v>18</v>
       </c>
     </row>

--- a/File_Excel/commenti_positivi_negativi_per_notizia.xlsx
+++ b/File_Excel/commenti_positivi_negativi_per_notizia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" t="n">
         <v>19</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F11" t="n">
         <v>16</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F19" t="n">
         <v>8</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F24" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F90" t="n">
         <v>15</v>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F96" t="n">
         <v>24</v>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Il Corrirere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
@@ -2817,14 +2817,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F100" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
@@ -2841,38 +2841,38 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>Strage di Cutro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F102" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -2889,14 +2889,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F103" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -2913,14 +2913,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F104" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -2932,19 +2932,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F105" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -2961,14 +2961,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -2985,14 +2985,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F107" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -3004,19 +3004,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F108" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -3033,14 +3033,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F109" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
@@ -3057,37 +3057,13 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F110" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Strage di Cutro</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>La Repubblica</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>82</v>
-      </c>
-      <c r="F111" t="n">
         <v>18</v>
       </c>
     </row>
